--- a/data/pca/factorExposure/factorExposure_2012-05-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-24.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01758264492776413</v>
+        <v>0.02191277256415333</v>
       </c>
       <c r="C2">
-        <v>-0.03270221166188163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02574036786929464</v>
+      </c>
+      <c r="D2">
+        <v>0.002562806549825147</v>
+      </c>
+      <c r="E2">
+        <v>-0.02828935193861841</v>
+      </c>
+      <c r="F2">
+        <v>0.006627259644759511</v>
+      </c>
+      <c r="G2">
+        <v>-0.01105298132986237</v>
+      </c>
+      <c r="H2">
+        <v>0.05373908509934681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0700822924498926</v>
+        <v>0.07906122542252803</v>
       </c>
       <c r="C4">
-        <v>-0.05977987880334446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03999763260752148</v>
+      </c>
+      <c r="D4">
+        <v>-0.06966045275461709</v>
+      </c>
+      <c r="E4">
+        <v>-0.001658603234775296</v>
+      </c>
+      <c r="F4">
+        <v>0.03353444512772336</v>
+      </c>
+      <c r="G4">
+        <v>0.001816104202324872</v>
+      </c>
+      <c r="H4">
+        <v>-0.0235051286135057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.100203431683231</v>
+        <v>0.115687641810116</v>
       </c>
       <c r="C6">
-        <v>-0.0649517188231392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04140991961020007</v>
+      </c>
+      <c r="D6">
+        <v>-0.01358584880463229</v>
+      </c>
+      <c r="E6">
+        <v>0.002728875558360036</v>
+      </c>
+      <c r="F6">
+        <v>0.05336650222937311</v>
+      </c>
+      <c r="G6">
+        <v>-0.01604201649798863</v>
+      </c>
+      <c r="H6">
+        <v>0.06596468493575795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04879668175437418</v>
+        <v>0.05893806363906962</v>
       </c>
       <c r="C7">
-        <v>-0.03525436115532608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02389575514338416</v>
+      </c>
+      <c r="D7">
+        <v>-0.04251986935264496</v>
+      </c>
+      <c r="E7">
+        <v>-0.02136567089080241</v>
+      </c>
+      <c r="F7">
+        <v>0.03566712049046052</v>
+      </c>
+      <c r="G7">
+        <v>0.04191768489576098</v>
+      </c>
+      <c r="H7">
+        <v>-0.03020657616185407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03460225566119315</v>
+        <v>0.03757698781386207</v>
       </c>
       <c r="C8">
-        <v>-0.02410646456345527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01422800085560445</v>
+      </c>
+      <c r="D8">
+        <v>-0.03725122105170438</v>
+      </c>
+      <c r="E8">
+        <v>-0.005773721631991022</v>
+      </c>
+      <c r="F8">
+        <v>0.04996704489876089</v>
+      </c>
+      <c r="G8">
+        <v>-0.02564529135819959</v>
+      </c>
+      <c r="H8">
+        <v>0.02579042695060873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06459560250750671</v>
+        <v>0.0739047467687496</v>
       </c>
       <c r="C9">
-        <v>-0.04808099884083801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02964951041552728</v>
+      </c>
+      <c r="D9">
+        <v>-0.06795156183125693</v>
+      </c>
+      <c r="E9">
+        <v>-0.01994275993354338</v>
+      </c>
+      <c r="F9">
+        <v>0.04028166755509263</v>
+      </c>
+      <c r="G9">
+        <v>0.0006134925536689192</v>
+      </c>
+      <c r="H9">
+        <v>-0.05192216476833848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03348776940102038</v>
+        <v>0.04367209902991689</v>
       </c>
       <c r="C10">
-        <v>-0.03463906501930469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.0353055032441966</v>
+      </c>
+      <c r="D10">
+        <v>0.1779441259168832</v>
+      </c>
+      <c r="E10">
+        <v>-0.04856350927345039</v>
+      </c>
+      <c r="F10">
+        <v>0.04096050502444304</v>
+      </c>
+      <c r="G10">
+        <v>0.03859068030295268</v>
+      </c>
+      <c r="H10">
+        <v>0.03042705390914204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06728344796932327</v>
+        <v>0.07533543475401309</v>
       </c>
       <c r="C11">
-        <v>-0.05168282409534931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03096940539201756</v>
+      </c>
+      <c r="D11">
+        <v>-0.06689213538389897</v>
+      </c>
+      <c r="E11">
+        <v>0.010993905435886</v>
+      </c>
+      <c r="F11">
+        <v>0.02985585799772959</v>
+      </c>
+      <c r="G11">
+        <v>0.01290720080354145</v>
+      </c>
+      <c r="H11">
+        <v>-0.08850837014321886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05300197247623625</v>
+        <v>0.06422588334007547</v>
       </c>
       <c r="C12">
-        <v>-0.05243665299493246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03681789940622839</v>
+      </c>
+      <c r="D12">
+        <v>-0.0520722260954581</v>
+      </c>
+      <c r="E12">
+        <v>-0.008119474309339991</v>
+      </c>
+      <c r="F12">
+        <v>0.02673464691606323</v>
+      </c>
+      <c r="G12">
+        <v>0.008273973466911517</v>
+      </c>
+      <c r="H12">
+        <v>-0.04638062925691618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05709163823372814</v>
+        <v>0.06465239753275823</v>
       </c>
       <c r="C13">
-        <v>-0.04866705201285416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03073012453149044</v>
+      </c>
+      <c r="D13">
+        <v>-0.04116720506012896</v>
+      </c>
+      <c r="E13">
+        <v>0.002100825854719106</v>
+      </c>
+      <c r="F13">
+        <v>0.003624938211918438</v>
+      </c>
+      <c r="G13">
+        <v>-0.002217727499136285</v>
+      </c>
+      <c r="H13">
+        <v>-0.06198405441331503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03149208066970797</v>
+        <v>0.0395601629578971</v>
       </c>
       <c r="C14">
-        <v>-0.03110553520442847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02400269815907794</v>
+      </c>
+      <c r="D14">
+        <v>-0.006972902895225937</v>
+      </c>
+      <c r="E14">
+        <v>-0.02014706368919657</v>
+      </c>
+      <c r="F14">
+        <v>0.02245861932729731</v>
+      </c>
+      <c r="G14">
+        <v>-0.005316312726979309</v>
+      </c>
+      <c r="H14">
+        <v>-0.05449482906854303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04004594414193113</v>
+        <v>0.0405841100336216</v>
       </c>
       <c r="C15">
-        <v>-0.01248951338884221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002435796667745235</v>
+      </c>
+      <c r="D15">
+        <v>-0.01054516266324056</v>
+      </c>
+      <c r="E15">
+        <v>-0.03892502146930082</v>
+      </c>
+      <c r="F15">
+        <v>-0.00112585306908665</v>
+      </c>
+      <c r="G15">
+        <v>-0.02069838996190017</v>
+      </c>
+      <c r="H15">
+        <v>-0.06009664333115469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05609092622465232</v>
+        <v>0.06388317117660836</v>
       </c>
       <c r="C16">
-        <v>-0.04398006089997481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02806485410983443</v>
+      </c>
+      <c r="D16">
+        <v>-0.06211708920669433</v>
+      </c>
+      <c r="E16">
+        <v>0.0009518084271847788</v>
+      </c>
+      <c r="F16">
+        <v>0.02799285653687641</v>
+      </c>
+      <c r="G16">
+        <v>0.004259923259066299</v>
+      </c>
+      <c r="H16">
+        <v>-0.05176655597245326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06157298305306221</v>
+        <v>0.06243547271154978</v>
       </c>
       <c r="C20">
-        <v>-0.03821535775992548</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01788831802969346</v>
+      </c>
+      <c r="D20">
+        <v>-0.05428574520556814</v>
+      </c>
+      <c r="E20">
+        <v>-0.01722941581138399</v>
+      </c>
+      <c r="F20">
+        <v>0.02905611359496629</v>
+      </c>
+      <c r="G20">
+        <v>0.004498254231393167</v>
+      </c>
+      <c r="H20">
+        <v>-0.04353129729698701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02424908633180555</v>
+        <v>0.02328682958324162</v>
       </c>
       <c r="C21">
-        <v>0.003647418359042765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01141646266669514</v>
+      </c>
+      <c r="D21">
+        <v>-0.03599029886723564</v>
+      </c>
+      <c r="E21">
+        <v>-0.07859935062656002</v>
+      </c>
+      <c r="F21">
+        <v>-0.003861624881645569</v>
+      </c>
+      <c r="G21">
+        <v>-0.005498496798363149</v>
+      </c>
+      <c r="H21">
+        <v>0.01415132234158689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06804568604868802</v>
+        <v>0.06175973924469458</v>
       </c>
       <c r="C22">
-        <v>-0.06724128624225996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03944957895756099</v>
+      </c>
+      <c r="D22">
+        <v>-0.09914772815498005</v>
+      </c>
+      <c r="E22">
+        <v>-0.6156613079378602</v>
+      </c>
+      <c r="F22">
+        <v>-0.1272075691609215</v>
+      </c>
+      <c r="G22">
+        <v>0.02478276585947532</v>
+      </c>
+      <c r="H22">
+        <v>0.1129202090791676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0692344215649273</v>
+        <v>0.06224383575689968</v>
       </c>
       <c r="C23">
-        <v>-0.06661651843136275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03833461749176135</v>
+      </c>
+      <c r="D23">
+        <v>-0.09998694915726403</v>
+      </c>
+      <c r="E23">
+        <v>-0.6146969525861361</v>
+      </c>
+      <c r="F23">
+        <v>-0.1265046848424944</v>
+      </c>
+      <c r="G23">
+        <v>0.02351874956067105</v>
+      </c>
+      <c r="H23">
+        <v>0.1080301776685957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06538539642557119</v>
+        <v>0.07552408225853088</v>
       </c>
       <c r="C24">
-        <v>-0.05356678997076393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03402458502077375</v>
+      </c>
+      <c r="D24">
+        <v>-0.0644034802708373</v>
+      </c>
+      <c r="E24">
+        <v>-0.007130668317957695</v>
+      </c>
+      <c r="F24">
+        <v>0.03852226774040794</v>
+      </c>
+      <c r="G24">
+        <v>-0.0009559093417027197</v>
+      </c>
+      <c r="H24">
+        <v>-0.05968896722772857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06527230424747008</v>
+        <v>0.07376670587516225</v>
       </c>
       <c r="C25">
-        <v>-0.05941876242730381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03905580390476275</v>
+      </c>
+      <c r="D25">
+        <v>-0.06187991298795514</v>
+      </c>
+      <c r="E25">
+        <v>-0.01123820511613768</v>
+      </c>
+      <c r="F25">
+        <v>0.03611015325446663</v>
+      </c>
+      <c r="G25">
+        <v>-0.01218904107220261</v>
+      </c>
+      <c r="H25">
+        <v>-0.06413576740771407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03949594125317203</v>
+        <v>0.04269582681717312</v>
       </c>
       <c r="C26">
-        <v>-0.01378278769439917</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.004536554991192767</v>
+      </c>
+      <c r="D26">
+        <v>-0.02892205426086951</v>
+      </c>
+      <c r="E26">
+        <v>-0.03633091538973989</v>
+      </c>
+      <c r="F26">
+        <v>0.02882545873855392</v>
+      </c>
+      <c r="G26">
+        <v>0.01031605989226469</v>
+      </c>
+      <c r="H26">
+        <v>-0.06367584414107273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06175254073096284</v>
+        <v>0.07987302690239111</v>
       </c>
       <c r="C28">
-        <v>-0.07270266232541081</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07017430769898232</v>
+      </c>
+      <c r="D28">
+        <v>0.3182408481061038</v>
+      </c>
+      <c r="E28">
+        <v>-0.03598191351804641</v>
+      </c>
+      <c r="F28">
+        <v>0.05262521161999442</v>
+      </c>
+      <c r="G28">
+        <v>-0.02428834731337774</v>
+      </c>
+      <c r="H28">
+        <v>-0.005690422792410037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03728654828365308</v>
+        <v>0.04459598381075789</v>
       </c>
       <c r="C29">
-        <v>-0.02939936975625913</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.0216429863269496</v>
+      </c>
+      <c r="D29">
+        <v>-0.01350064940536942</v>
+      </c>
+      <c r="E29">
+        <v>-0.03909363827711958</v>
+      </c>
+      <c r="F29">
+        <v>0.01653454284276527</v>
+      </c>
+      <c r="G29">
+        <v>0.01481452731331798</v>
+      </c>
+      <c r="H29">
+        <v>-0.08946244775728929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1147700292730093</v>
+        <v>0.1304470112330425</v>
       </c>
       <c r="C30">
-        <v>-0.0988168496965201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06391052169946061</v>
+      </c>
+      <c r="D30">
+        <v>-0.094446187975486</v>
+      </c>
+      <c r="E30">
+        <v>-0.0435792193553995</v>
+      </c>
+      <c r="F30">
+        <v>0.01522352082565501</v>
+      </c>
+      <c r="G30">
+        <v>-0.03310210277989644</v>
+      </c>
+      <c r="H30">
+        <v>0.04070881526749123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03819015639148099</v>
+        <v>0.04411446677182022</v>
       </c>
       <c r="C31">
-        <v>-0.02261224310690778</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01297605884971842</v>
+      </c>
+      <c r="D31">
+        <v>-0.02926053700114507</v>
+      </c>
+      <c r="E31">
+        <v>-0.02141265514960584</v>
+      </c>
+      <c r="F31">
+        <v>0.01449782687115427</v>
+      </c>
+      <c r="G31">
+        <v>0.02260398417109583</v>
+      </c>
+      <c r="H31">
+        <v>-0.0671380353390837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03582946873620889</v>
+        <v>0.03333170435891673</v>
       </c>
       <c r="C32">
-        <v>-0.02268990515777453</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01164823576978572</v>
+      </c>
+      <c r="D32">
+        <v>-0.01314534704104921</v>
+      </c>
+      <c r="E32">
+        <v>-0.06933577533766727</v>
+      </c>
+      <c r="F32">
+        <v>-0.002955668838617199</v>
+      </c>
+      <c r="G32">
+        <v>-0.03537176548545533</v>
+      </c>
+      <c r="H32">
+        <v>-0.03496861741643182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07412809490266671</v>
+        <v>0.0880055704394513</v>
       </c>
       <c r="C33">
-        <v>-0.04944807763914253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.0311701543783871</v>
+      </c>
+      <c r="D33">
+        <v>-0.06030290980126015</v>
+      </c>
+      <c r="E33">
+        <v>-0.01370421006218226</v>
+      </c>
+      <c r="F33">
+        <v>0.00778187792812199</v>
+      </c>
+      <c r="G33">
+        <v>0.01465966898599798</v>
+      </c>
+      <c r="H33">
+        <v>-0.05750832807758641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05206938822797142</v>
+        <v>0.05824016479818502</v>
       </c>
       <c r="C34">
-        <v>-0.03413559797727635</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01799068336056905</v>
+      </c>
+      <c r="D34">
+        <v>-0.06134144138605455</v>
+      </c>
+      <c r="E34">
+        <v>-0.001990967878339382</v>
+      </c>
+      <c r="F34">
+        <v>0.02231251064534526</v>
+      </c>
+      <c r="G34">
+        <v>-0.001599589708146464</v>
+      </c>
+      <c r="H34">
+        <v>-0.04427116835723295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03613991848616328</v>
+        <v>0.04029134096234545</v>
       </c>
       <c r="C35">
-        <v>-0.01160206168014842</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.003552177038419252</v>
+      </c>
+      <c r="D35">
+        <v>-0.01527417329157618</v>
+      </c>
+      <c r="E35">
+        <v>-0.01958888162443356</v>
+      </c>
+      <c r="F35">
+        <v>-0.00139612952597919</v>
+      </c>
+      <c r="G35">
+        <v>0.01284368476207369</v>
+      </c>
+      <c r="H35">
+        <v>-0.03683280360433624</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01786719857389763</v>
+        <v>0.02464884732533365</v>
       </c>
       <c r="C36">
-        <v>-0.01700290599933937</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01288674925836932</v>
+      </c>
+      <c r="D36">
+        <v>-0.02049125041569556</v>
+      </c>
+      <c r="E36">
+        <v>-0.03851647770132394</v>
+      </c>
+      <c r="F36">
+        <v>0.02116800381043276</v>
+      </c>
+      <c r="G36">
+        <v>0.01420603473177016</v>
+      </c>
+      <c r="H36">
+        <v>-0.05309582350751966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0381500186592294</v>
+        <v>0.04232322463133073</v>
       </c>
       <c r="C38">
-        <v>-0.008949029411745232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001916515508340153</v>
+      </c>
+      <c r="D38">
+        <v>-0.02118738282644658</v>
+      </c>
+      <c r="E38">
+        <v>-0.06058220873799832</v>
+      </c>
+      <c r="F38">
+        <v>-0.0103449391775673</v>
+      </c>
+      <c r="G38">
+        <v>-0.0155334920654096</v>
+      </c>
+      <c r="H38">
+        <v>-0.04000149778755051</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08637762518735487</v>
+        <v>0.09999534917474386</v>
       </c>
       <c r="C39">
-        <v>-0.08114033715792397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05440921867670623</v>
+      </c>
+      <c r="D39">
+        <v>-0.07855472908876336</v>
+      </c>
+      <c r="E39">
+        <v>0.01457967188493881</v>
+      </c>
+      <c r="F39">
+        <v>0.01378211964531347</v>
+      </c>
+      <c r="G39">
+        <v>-0.02445950570181899</v>
+      </c>
+      <c r="H39">
+        <v>-0.04450794884877927</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06773996905056404</v>
+        <v>0.07051885567450697</v>
       </c>
       <c r="C40">
-        <v>-0.05549621479100362</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03352478103126803</v>
+      </c>
+      <c r="D40">
+        <v>-0.008822508836219538</v>
+      </c>
+      <c r="E40">
+        <v>-0.02335789906594384</v>
+      </c>
+      <c r="F40">
+        <v>-0.05946416384697736</v>
+      </c>
+      <c r="G40">
+        <v>-0.07914803945945306</v>
+      </c>
+      <c r="H40">
+        <v>0.1000823690793791</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03856619937491763</v>
+        <v>0.04247097593199006</v>
       </c>
       <c r="C41">
-        <v>-0.01293563518527203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.004457087631259194</v>
+      </c>
+      <c r="D41">
+        <v>-0.04120306709556742</v>
+      </c>
+      <c r="E41">
+        <v>-0.006037883695955729</v>
+      </c>
+      <c r="F41">
+        <v>-0.008140965137585918</v>
+      </c>
+      <c r="G41">
+        <v>-0.009641283697937039</v>
+      </c>
+      <c r="H41">
+        <v>-0.04445656831694072</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04324104341868346</v>
+        <v>0.05195416287909281</v>
       </c>
       <c r="C43">
-        <v>-0.03141375874567839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01990372406269516</v>
+      </c>
+      <c r="D43">
+        <v>-0.02824091827132698</v>
+      </c>
+      <c r="E43">
+        <v>-0.01599709900379192</v>
+      </c>
+      <c r="F43">
+        <v>0.01265830230716027</v>
+      </c>
+      <c r="G43">
+        <v>0.007004077871587707</v>
+      </c>
+      <c r="H43">
+        <v>-0.05086308589910186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09124175595335374</v>
+        <v>0.09067671509667528</v>
       </c>
       <c r="C44">
-        <v>-0.09397049090473675</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06053057830452628</v>
+      </c>
+      <c r="D44">
+        <v>-0.06112589109564504</v>
+      </c>
+      <c r="E44">
+        <v>-0.09893474404620815</v>
+      </c>
+      <c r="F44">
+        <v>0.05745384767429634</v>
+      </c>
+      <c r="G44">
+        <v>-0.03023771794564593</v>
+      </c>
+      <c r="H44">
+        <v>0.06339709913565102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.025654389976814</v>
+        <v>0.02843120243713235</v>
       </c>
       <c r="C46">
-        <v>-0.01762167514654161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01009086130608708</v>
+      </c>
+      <c r="D46">
+        <v>-0.03407654260700672</v>
+      </c>
+      <c r="E46">
+        <v>-0.01676863951956977</v>
+      </c>
+      <c r="F46">
+        <v>0.01754212465680485</v>
+      </c>
+      <c r="G46">
+        <v>-0.001917734674939554</v>
+      </c>
+      <c r="H46">
+        <v>-0.0435355661048086</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02591387930329519</v>
+        <v>0.02838124700858692</v>
       </c>
       <c r="C47">
-        <v>-0.02040107104897155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01308543252279012</v>
+      </c>
+      <c r="D47">
+        <v>-0.01372019091656318</v>
+      </c>
+      <c r="E47">
+        <v>-0.04717903457273018</v>
+      </c>
+      <c r="F47">
+        <v>0.01666780282483884</v>
+      </c>
+      <c r="G47">
+        <v>0.03538618701728897</v>
+      </c>
+      <c r="H47">
+        <v>-0.03306537962595698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0277803321069126</v>
+        <v>0.03254618183332228</v>
       </c>
       <c r="C48">
-        <v>-0.01998520048117689</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01197984331775301</v>
+      </c>
+      <c r="D48">
+        <v>-0.03295257637411908</v>
+      </c>
+      <c r="E48">
+        <v>-0.04029678431057905</v>
+      </c>
+      <c r="F48">
+        <v>0.01096416321945127</v>
+      </c>
+      <c r="G48">
+        <v>-0.006809693283342856</v>
+      </c>
+      <c r="H48">
+        <v>-0.05671616735912333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1511448405480321</v>
+        <v>0.1794229325278865</v>
       </c>
       <c r="C49">
-        <v>-0.08903696959111948</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05393563998989005</v>
+      </c>
+      <c r="D49">
+        <v>-0.02610658416668812</v>
+      </c>
+      <c r="E49">
+        <v>0.1277805495152422</v>
+      </c>
+      <c r="F49">
+        <v>0.03290420784752339</v>
+      </c>
+      <c r="G49">
+        <v>0.03901336377461996</v>
+      </c>
+      <c r="H49">
+        <v>0.2711834268108247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03390529112808099</v>
+        <v>0.04224219068888283</v>
       </c>
       <c r="C50">
-        <v>-0.02894643176684206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02212183437662066</v>
+      </c>
+      <c r="D50">
+        <v>-0.03516372744874997</v>
+      </c>
+      <c r="E50">
+        <v>-0.04665326532183808</v>
+      </c>
+      <c r="F50">
+        <v>0.02537049994126836</v>
+      </c>
+      <c r="G50">
+        <v>0.01845908198252511</v>
+      </c>
+      <c r="H50">
+        <v>-0.07155052331821941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02411826854919799</v>
+        <v>0.02642071659828599</v>
       </c>
       <c r="C51">
-        <v>-0.01384865212546292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.008716876611210546</v>
+      </c>
+      <c r="D51">
+        <v>-0.02320382220514614</v>
+      </c>
+      <c r="E51">
+        <v>-0.01589433332088232</v>
+      </c>
+      <c r="F51">
+        <v>0.01325167252199263</v>
+      </c>
+      <c r="G51">
+        <v>-0.003534163524276229</v>
+      </c>
+      <c r="H51">
+        <v>-0.01432947663603612</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1393635167515641</v>
+        <v>0.1580982776913878</v>
       </c>
       <c r="C53">
-        <v>-0.09392226060811995</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06306092197923757</v>
+      </c>
+      <c r="D53">
+        <v>-0.0244043563705182</v>
+      </c>
+      <c r="E53">
+        <v>0.03858138516653358</v>
+      </c>
+      <c r="F53">
+        <v>0.01957867143718683</v>
+      </c>
+      <c r="G53">
+        <v>0.006487708815064231</v>
+      </c>
+      <c r="H53">
+        <v>-0.1513120952262425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05156940863526498</v>
+        <v>0.05554279457238333</v>
       </c>
       <c r="C54">
-        <v>-0.02738172816207686</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01330793782787769</v>
+      </c>
+      <c r="D54">
+        <v>-0.03235667582010662</v>
+      </c>
+      <c r="E54">
+        <v>-0.04663051676464427</v>
+      </c>
+      <c r="F54">
+        <v>0.015440949148715</v>
+      </c>
+      <c r="G54">
+        <v>-0.00512460425876583</v>
+      </c>
+      <c r="H54">
+        <v>-0.06189270529384465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09220318984410211</v>
+        <v>0.09903622295272814</v>
       </c>
       <c r="C55">
-        <v>-0.06121500039944804</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03878983302632479</v>
+      </c>
+      <c r="D55">
+        <v>-0.03091409710234371</v>
+      </c>
+      <c r="E55">
+        <v>-0.007766705560582653</v>
+      </c>
+      <c r="F55">
+        <v>0.02049961093077294</v>
+      </c>
+      <c r="G55">
+        <v>0.001422929603598466</v>
+      </c>
+      <c r="H55">
+        <v>-0.1369572448016445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1387337603883582</v>
+        <v>0.1571732175112938</v>
       </c>
       <c r="C56">
-        <v>-0.1059182785583457</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07226785692924803</v>
+      </c>
+      <c r="D56">
+        <v>-0.01696982993655262</v>
+      </c>
+      <c r="E56">
+        <v>0.04062859984541896</v>
+      </c>
+      <c r="F56">
+        <v>0.0423519514032815</v>
+      </c>
+      <c r="G56">
+        <v>0.01787545805576717</v>
+      </c>
+      <c r="H56">
+        <v>-0.1494040170601094</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1167209012529741</v>
+        <v>0.1001306439536318</v>
       </c>
       <c r="C58">
-        <v>-0.02451030195801105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.01642320329726731</v>
+      </c>
+      <c r="D58">
+        <v>-0.06119980013571674</v>
+      </c>
+      <c r="E58">
+        <v>-0.1807489652581709</v>
+      </c>
+      <c r="F58">
+        <v>0.01385249189967875</v>
+      </c>
+      <c r="G58">
+        <v>0.03828376628589295</v>
+      </c>
+      <c r="H58">
+        <v>0.1891729301340868</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1174575908274689</v>
+        <v>0.1519204460023503</v>
       </c>
       <c r="C59">
-        <v>-0.08529231321232406</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.07947517405638681</v>
+      </c>
+      <c r="D59">
+        <v>0.3547343919903429</v>
+      </c>
+      <c r="E59">
+        <v>-0.04487033529052</v>
+      </c>
+      <c r="F59">
+        <v>-0.008055833499486497</v>
+      </c>
+      <c r="G59">
+        <v>0.04341980228782121</v>
+      </c>
+      <c r="H59">
+        <v>6.526289182071828e-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1894486329994379</v>
+        <v>0.2207496858117605</v>
       </c>
       <c r="C60">
-        <v>-0.1149972692350086</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07418474488194989</v>
+      </c>
+      <c r="D60">
+        <v>-0.02662832839704885</v>
+      </c>
+      <c r="E60">
+        <v>0.07004720375041892</v>
+      </c>
+      <c r="F60">
+        <v>0.0453472092291036</v>
+      </c>
+      <c r="G60">
+        <v>-0.02443916917098505</v>
+      </c>
+      <c r="H60">
+        <v>0.1695933577782773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07419902296496536</v>
+        <v>0.08472034522262237</v>
       </c>
       <c r="C61">
-        <v>-0.06185107134210798</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04127556216949445</v>
+      </c>
+      <c r="D61">
+        <v>-0.05806400549044601</v>
+      </c>
+      <c r="E61">
+        <v>0.01676614189842489</v>
+      </c>
+      <c r="F61">
+        <v>0.005075402555141265</v>
+      </c>
+      <c r="G61">
+        <v>0.01091525908836573</v>
+      </c>
+      <c r="H61">
+        <v>-0.06981114441794969</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1199681428246724</v>
+        <v>0.1383859104957378</v>
       </c>
       <c r="C62">
-        <v>-0.07985509490030915</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05344084080347188</v>
+      </c>
+      <c r="D62">
+        <v>-0.0256645013134388</v>
+      </c>
+      <c r="E62">
+        <v>0.05458759815774073</v>
+      </c>
+      <c r="F62">
+        <v>0.01625844405968813</v>
+      </c>
+      <c r="G62">
+        <v>-0.02642364379276433</v>
+      </c>
+      <c r="H62">
+        <v>-0.1518720689896885</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05040166184505804</v>
+        <v>0.05058870792892441</v>
       </c>
       <c r="C63">
-        <v>-0.03256543054152721</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01738720534589543</v>
+      </c>
+      <c r="D63">
+        <v>-0.02997756678424476</v>
+      </c>
+      <c r="E63">
+        <v>-0.04722460419117985</v>
+      </c>
+      <c r="F63">
+        <v>0.0116835218446296</v>
+      </c>
+      <c r="G63">
+        <v>-0.03156826284557757</v>
+      </c>
+      <c r="H63">
+        <v>-0.08549306773287008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1057996479992537</v>
+        <v>0.111385922698926</v>
       </c>
       <c r="C64">
-        <v>-0.04002308135849222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01243163368571486</v>
+      </c>
+      <c r="D64">
+        <v>-0.04792480282339063</v>
+      </c>
+      <c r="E64">
+        <v>-0.02550923815026494</v>
+      </c>
+      <c r="F64">
+        <v>0.05575047196110332</v>
+      </c>
+      <c r="G64">
+        <v>-0.02330042483395483</v>
+      </c>
+      <c r="H64">
+        <v>-0.07754583735392742</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1121902154695982</v>
+        <v>0.1246315458924528</v>
       </c>
       <c r="C65">
-        <v>-0.06557391695226131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04043258719952937</v>
+      </c>
+      <c r="D65">
+        <v>-0.009598539313226233</v>
+      </c>
+      <c r="E65">
+        <v>-0.001119424881947819</v>
+      </c>
+      <c r="F65">
+        <v>0.06767209570190194</v>
+      </c>
+      <c r="G65">
+        <v>-0.03711785023986044</v>
+      </c>
+      <c r="H65">
+        <v>0.0917724142961017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1327426702616785</v>
+        <v>0.1503723052327584</v>
       </c>
       <c r="C66">
-        <v>-0.09334383025682598</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05725520763374872</v>
+      </c>
+      <c r="D66">
+        <v>-0.1169426521196672</v>
+      </c>
+      <c r="E66">
+        <v>0.05441176908465103</v>
+      </c>
+      <c r="F66">
+        <v>0.02802520339255818</v>
+      </c>
+      <c r="G66">
+        <v>-0.02902228759047315</v>
+      </c>
+      <c r="H66">
+        <v>-0.1193708104526265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06965983760187051</v>
+        <v>0.07698335338425721</v>
       </c>
       <c r="C67">
-        <v>-0.02068877862847137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.006811131225552403</v>
+      </c>
+      <c r="D67">
+        <v>-0.03214772474586469</v>
+      </c>
+      <c r="E67">
+        <v>-0.02762727726987646</v>
+      </c>
+      <c r="F67">
+        <v>0.01153676473011449</v>
+      </c>
+      <c r="G67">
+        <v>0.005493355737110185</v>
+      </c>
+      <c r="H67">
+        <v>-0.03352062759117763</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06192754771937943</v>
+        <v>0.07333576754999659</v>
       </c>
       <c r="C68">
-        <v>-0.04864774412071117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04574446279787441</v>
+      </c>
+      <c r="D68">
+        <v>0.2636659194143013</v>
+      </c>
+      <c r="E68">
+        <v>-0.04883453070991848</v>
+      </c>
+      <c r="F68">
+        <v>0.01066528538330441</v>
+      </c>
+      <c r="G68">
+        <v>0.009341355614173937</v>
+      </c>
+      <c r="H68">
+        <v>-0.02183086840397029</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04717648393064343</v>
+        <v>0.04686024222915715</v>
       </c>
       <c r="C69">
-        <v>-0.02378151905924098</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.008622749235647499</v>
+      </c>
+      <c r="D69">
+        <v>-0.02544410048139401</v>
+      </c>
+      <c r="E69">
+        <v>-0.0212209811612266</v>
+      </c>
+      <c r="F69">
+        <v>-0.003166261699959491</v>
+      </c>
+      <c r="G69">
+        <v>0.009166880222208455</v>
+      </c>
+      <c r="H69">
+        <v>-0.06124117184894288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004907846230863034</v>
+        <v>0.01848712853148917</v>
       </c>
       <c r="C70">
-        <v>0.003114882356948432</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0008338037869637604</v>
+      </c>
+      <c r="D70">
+        <v>0.003385718977290808</v>
+      </c>
+      <c r="E70">
+        <v>0.02498119056239371</v>
+      </c>
+      <c r="F70">
+        <v>0.01530294008800684</v>
+      </c>
+      <c r="G70">
+        <v>0.01771455133379458</v>
+      </c>
+      <c r="H70">
+        <v>0.04858694393892068</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06585758380640371</v>
+        <v>0.07778161414152493</v>
       </c>
       <c r="C71">
-        <v>-0.04552786028321381</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04307418255748249</v>
+      </c>
+      <c r="D71">
+        <v>0.2949095732718466</v>
+      </c>
+      <c r="E71">
+        <v>-0.04578094551181742</v>
+      </c>
+      <c r="F71">
+        <v>0.0390916679062419</v>
+      </c>
+      <c r="G71">
+        <v>0.005831270485011753</v>
+      </c>
+      <c r="H71">
+        <v>-0.00892414756079778</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1333388144871852</v>
+        <v>0.1542923120348445</v>
       </c>
       <c r="C72">
-        <v>-0.07094731729292034</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04251174292913013</v>
+      </c>
+      <c r="D72">
+        <v>-0.005214219295923019</v>
+      </c>
+      <c r="E72">
+        <v>0.09097555940768068</v>
+      </c>
+      <c r="F72">
+        <v>-0.1618836358366485</v>
+      </c>
+      <c r="G72">
+        <v>-0.1113308058308312</v>
+      </c>
+      <c r="H72">
+        <v>-0.01772847499896876</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.250079462265816</v>
+        <v>0.2806253841480604</v>
       </c>
       <c r="C73">
-        <v>-0.1388063305718721</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07493145456815892</v>
+      </c>
+      <c r="D73">
+        <v>-0.09070815095750351</v>
+      </c>
+      <c r="E73">
+        <v>0.1815239555092336</v>
+      </c>
+      <c r="F73">
+        <v>0.09166030369468002</v>
+      </c>
+      <c r="G73">
+        <v>0.1746422960955974</v>
+      </c>
+      <c r="H73">
+        <v>0.5974085454841889</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07263485570966194</v>
+        <v>0.08789913197446536</v>
       </c>
       <c r="C74">
-        <v>-0.08409909839289406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06391901410511396</v>
+      </c>
+      <c r="D74">
+        <v>-0.02973986066081225</v>
+      </c>
+      <c r="E74">
+        <v>0.006417218179821584</v>
+      </c>
+      <c r="F74">
+        <v>-0.01086433467576543</v>
+      </c>
+      <c r="G74">
+        <v>0.03778251622183863</v>
+      </c>
+      <c r="H74">
+        <v>-0.1265907562177914</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09305180025016752</v>
+        <v>0.1014114077233659</v>
       </c>
       <c r="C75">
-        <v>-0.06126052754161572</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03291332529348349</v>
+      </c>
+      <c r="D75">
+        <v>-0.01153154042386515</v>
+      </c>
+      <c r="E75">
+        <v>0.00387244411028599</v>
+      </c>
+      <c r="F75">
+        <v>0.04753584987013013</v>
+      </c>
+      <c r="G75">
+        <v>0.01896408172310379</v>
+      </c>
+      <c r="H75">
+        <v>-0.1169563146470437</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1169092860810642</v>
+        <v>0.1314837492086346</v>
       </c>
       <c r="C76">
-        <v>-0.09649474864330959</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06593083854471685</v>
+      </c>
+      <c r="D76">
+        <v>-0.05082457406531369</v>
+      </c>
+      <c r="E76">
+        <v>-0.01139852612071883</v>
+      </c>
+      <c r="F76">
+        <v>0.06405589122649893</v>
+      </c>
+      <c r="G76">
+        <v>0.009614071334538236</v>
+      </c>
+      <c r="H76">
+        <v>-0.1564707430490039</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1163739984819038</v>
+        <v>0.1133161954045141</v>
       </c>
       <c r="C77">
-        <v>-0.05144408849240088</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.0160502637277334</v>
+      </c>
+      <c r="D77">
+        <v>-0.01530857407979677</v>
+      </c>
+      <c r="E77">
+        <v>0.008797818532078006</v>
+      </c>
+      <c r="F77">
+        <v>0.2129945371949039</v>
+      </c>
+      <c r="G77">
+        <v>-0.8895933184430576</v>
+      </c>
+      <c r="H77">
+        <v>0.1117185811333516</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08887345891935744</v>
+        <v>0.1121965366609079</v>
       </c>
       <c r="C78">
-        <v>-0.0465788866157141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03007315520498425</v>
+      </c>
+      <c r="D78">
+        <v>-0.08547736295059664</v>
+      </c>
+      <c r="E78">
+        <v>-0.06325327556523593</v>
+      </c>
+      <c r="F78">
+        <v>0.01400208091856126</v>
+      </c>
+      <c r="G78">
+        <v>-0.03867252321407524</v>
+      </c>
+      <c r="H78">
+        <v>0.1099838268401065</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.13677582631886</v>
+        <v>0.1498961372159957</v>
       </c>
       <c r="C79">
-        <v>-0.09793655213171254</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.05895950923256581</v>
+      </c>
+      <c r="D79">
+        <v>-0.03001491129460705</v>
+      </c>
+      <c r="E79">
+        <v>0.0266347462047837</v>
+      </c>
+      <c r="F79">
+        <v>0.02409951657525746</v>
+      </c>
+      <c r="G79">
+        <v>0.02327371133045213</v>
+      </c>
+      <c r="H79">
+        <v>-0.1502600626242631</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03959544670753064</v>
+        <v>0.03910415826054214</v>
       </c>
       <c r="C80">
-        <v>-0.01827902524226946</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007146743894016698</v>
+      </c>
+      <c r="D80">
+        <v>-0.03005216498302733</v>
+      </c>
+      <c r="E80">
+        <v>0.005325882160759074</v>
+      </c>
+      <c r="F80">
+        <v>-0.0207268568822424</v>
+      </c>
+      <c r="G80">
+        <v>0.03505172455949949</v>
+      </c>
+      <c r="H80">
+        <v>-0.04330581593106714</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.110222807249622</v>
+        <v>0.1173108145122835</v>
       </c>
       <c r="C81">
-        <v>-0.07442307105759864</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.04271915246469169</v>
+      </c>
+      <c r="D81">
+        <v>-0.02990564920266582</v>
+      </c>
+      <c r="E81">
+        <v>0.005902511317971089</v>
+      </c>
+      <c r="F81">
+        <v>0.0295319371713952</v>
+      </c>
+      <c r="G81">
+        <v>0.05979238948928138</v>
+      </c>
+      <c r="H81">
+        <v>-0.177524093721286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1175825775731567</v>
+        <v>0.1264605277231215</v>
       </c>
       <c r="C82">
-        <v>-0.08838488803530788</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05631304707608618</v>
+      </c>
+      <c r="D82">
+        <v>-0.03488439176305556</v>
+      </c>
+      <c r="E82">
+        <v>0.02100098132204258</v>
+      </c>
+      <c r="F82">
+        <v>0.05782091632483812</v>
+      </c>
+      <c r="G82">
+        <v>0.05366031028465046</v>
+      </c>
+      <c r="H82">
+        <v>-0.1751068163158332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07175977310231897</v>
+        <v>0.07749561496546384</v>
       </c>
       <c r="C83">
-        <v>-0.0175572398589572</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.00250402040169401</v>
+      </c>
+      <c r="D83">
+        <v>-0.05014005271448094</v>
+      </c>
+      <c r="E83">
+        <v>-0.01461773467108694</v>
+      </c>
+      <c r="F83">
+        <v>0.02468973006348743</v>
+      </c>
+      <c r="G83">
+        <v>0.08476098222500694</v>
+      </c>
+      <c r="H83">
+        <v>0.002886262270987512</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0262015241592657</v>
+        <v>0.03645736865071229</v>
       </c>
       <c r="C84">
-        <v>-0.02490097848857912</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02091089899981143</v>
+      </c>
+      <c r="D84">
+        <v>-0.03425727650737859</v>
+      </c>
+      <c r="E84">
+        <v>-0.0231313937401959</v>
+      </c>
+      <c r="F84">
+        <v>-0.04687030630099708</v>
+      </c>
+      <c r="G84">
+        <v>0.05625024041828051</v>
+      </c>
+      <c r="H84">
+        <v>-0.01630537417370901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1139295983521282</v>
+        <v>0.1169402599148227</v>
       </c>
       <c r="C85">
-        <v>-0.07052133933416725</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03646845612024777</v>
+      </c>
+      <c r="D85">
+        <v>-0.029901632779457</v>
+      </c>
+      <c r="E85">
+        <v>-0.001802429450298285</v>
+      </c>
+      <c r="F85">
+        <v>0.06770223218721001</v>
+      </c>
+      <c r="G85">
+        <v>0.02536429455107515</v>
+      </c>
+      <c r="H85">
+        <v>-0.1289769674601616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0480328781248402</v>
+        <v>0.04995083085818498</v>
       </c>
       <c r="C86">
-        <v>-0.02621823182714185</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01261054108597985</v>
+      </c>
+      <c r="D86">
+        <v>-0.02114563154987969</v>
+      </c>
+      <c r="E86">
+        <v>-0.05700176139042541</v>
+      </c>
+      <c r="F86">
+        <v>0.02695373681892766</v>
+      </c>
+      <c r="G86">
+        <v>0.006115541911758191</v>
+      </c>
+      <c r="H86">
+        <v>-0.01144480088782429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1170630124873062</v>
+        <v>0.1202376580680455</v>
       </c>
       <c r="C87">
-        <v>-0.08033437293737805</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04121097217245529</v>
+      </c>
+      <c r="D87">
+        <v>-0.07234452837644315</v>
+      </c>
+      <c r="E87">
+        <v>-0.01410294713982951</v>
+      </c>
+      <c r="F87">
+        <v>0.01799109829865598</v>
+      </c>
+      <c r="G87">
+        <v>-0.1036849987612102</v>
+      </c>
+      <c r="H87">
+        <v>-0.002626454214841983</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05197022394542285</v>
+        <v>0.05760758679969154</v>
       </c>
       <c r="C88">
-        <v>-0.03662554418390454</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02247948457524491</v>
+      </c>
+      <c r="D88">
+        <v>-0.02624210981482585</v>
+      </c>
+      <c r="E88">
+        <v>-0.01703265880490441</v>
+      </c>
+      <c r="F88">
+        <v>0.01001145906298866</v>
+      </c>
+      <c r="G88">
+        <v>-0.009351428207833442</v>
+      </c>
+      <c r="H88">
+        <v>-0.06926705534744446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08682033941729274</v>
+        <v>0.1113979304483416</v>
       </c>
       <c r="C89">
-        <v>-0.06978920958943595</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.06817661073546485</v>
+      </c>
+      <c r="D89">
+        <v>0.3287755086885646</v>
+      </c>
+      <c r="E89">
+        <v>-0.07633013720133557</v>
+      </c>
+      <c r="F89">
+        <v>0.06577856702093468</v>
+      </c>
+      <c r="G89">
+        <v>0.02501018789181255</v>
+      </c>
+      <c r="H89">
+        <v>0.00292290664567117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07612969977999862</v>
+        <v>0.09349889065082415</v>
       </c>
       <c r="C90">
-        <v>-0.06021768305115889</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.05713865062063629</v>
+      </c>
+      <c r="D90">
+        <v>0.3046054674529343</v>
+      </c>
+      <c r="E90">
+        <v>-0.0643160850801679</v>
+      </c>
+      <c r="F90">
+        <v>-0.008189276022115255</v>
+      </c>
+      <c r="G90">
+        <v>0.004554047895647753</v>
+      </c>
+      <c r="H90">
+        <v>-0.02262259100489351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07769953968052429</v>
+        <v>0.0862026370801473</v>
       </c>
       <c r="C91">
-        <v>-0.0645110449458233</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04168135749885962</v>
+      </c>
+      <c r="D91">
+        <v>-0.02489062374421619</v>
+      </c>
+      <c r="E91">
+        <v>-0.01302459307491858</v>
+      </c>
+      <c r="F91">
+        <v>0.01051512567448923</v>
+      </c>
+      <c r="G91">
+        <v>0.0447697090638175</v>
+      </c>
+      <c r="H91">
+        <v>-0.08643765032681121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08700451135919063</v>
+        <v>0.1042010813460076</v>
       </c>
       <c r="C92">
-        <v>-0.0723414446832655</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.0654935688197911</v>
+      </c>
+      <c r="D92">
+        <v>0.3421009705938221</v>
+      </c>
+      <c r="E92">
+        <v>-0.05256800626674133</v>
+      </c>
+      <c r="F92">
+        <v>0.03078284808335129</v>
+      </c>
+      <c r="G92">
+        <v>0.003148562277275128</v>
+      </c>
+      <c r="H92">
+        <v>-0.02276061939109697</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.07015316699689104</v>
+        <v>0.08963799296578309</v>
       </c>
       <c r="C93">
-        <v>-0.06042882394204512</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06049589289490555</v>
+      </c>
+      <c r="D93">
+        <v>0.3018811864591761</v>
+      </c>
+      <c r="E93">
+        <v>-0.03514897979826986</v>
+      </c>
+      <c r="F93">
+        <v>0.040513390905697</v>
+      </c>
+      <c r="G93">
+        <v>-0.001659192744431554</v>
+      </c>
+      <c r="H93">
+        <v>0.01106657118482989</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1235266086217624</v>
+        <v>0.126257778244646</v>
       </c>
       <c r="C94">
-        <v>-0.07444647782194287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03515539711719806</v>
+      </c>
+      <c r="D94">
+        <v>-0.05350223222793053</v>
+      </c>
+      <c r="E94">
+        <v>0.02371428364004364</v>
+      </c>
+      <c r="F94">
+        <v>0.03053523295455664</v>
+      </c>
+      <c r="G94">
+        <v>0.04430168071081509</v>
+      </c>
+      <c r="H94">
+        <v>-0.08433712563750353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1116509766042774</v>
+        <v>0.1189436558411885</v>
       </c>
       <c r="C95">
-        <v>-0.05439682289791011</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02179335501157001</v>
+      </c>
+      <c r="D95">
+        <v>-0.05908207003380139</v>
+      </c>
+      <c r="E95">
+        <v>0.008544552432842446</v>
+      </c>
+      <c r="F95">
+        <v>0.02470921337355636</v>
+      </c>
+      <c r="G95">
+        <v>0.01228464349472621</v>
+      </c>
+      <c r="H95">
+        <v>-0.02694264253355895</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.202194485428677</v>
+        <v>0.2208746794289829</v>
       </c>
       <c r="C97">
-        <v>-0.07403811381711024</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.02959482683514705</v>
+      </c>
+      <c r="D97">
+        <v>0.03523998302557665</v>
+      </c>
+      <c r="E97">
+        <v>0.1609660211487221</v>
+      </c>
+      <c r="F97">
+        <v>-0.8979295231787483</v>
+      </c>
+      <c r="G97">
+        <v>-0.1562921116525821</v>
+      </c>
+      <c r="H97">
+        <v>-0.01143234038757487</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2372065557717606</v>
+        <v>0.267043495025847</v>
       </c>
       <c r="C98">
-        <v>-0.1137385333626383</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.05500917561903389</v>
+      </c>
+      <c r="D98">
+        <v>-0.06308406761944832</v>
+      </c>
+      <c r="E98">
+        <v>0.1554723687973511</v>
+      </c>
+      <c r="F98">
+        <v>0.0408960845225879</v>
+      </c>
+      <c r="G98">
+        <v>0.2666511308463708</v>
+      </c>
+      <c r="H98">
+        <v>0.1368210790848293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5378559886073503</v>
+        <v>0.3329842788274884</v>
       </c>
       <c r="C99">
-        <v>0.8330348815819035</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9314443029943534</v>
+      </c>
+      <c r="D99">
+        <v>0.06606000394824059</v>
+      </c>
+      <c r="E99">
+        <v>-0.04031269053732616</v>
+      </c>
+      <c r="F99">
+        <v>0.03932576771002033</v>
+      </c>
+      <c r="G99">
+        <v>0.01430500123417822</v>
+      </c>
+      <c r="H99">
+        <v>-0.04274837262364604</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03735731289707936</v>
+        <v>0.04468979761288154</v>
       </c>
       <c r="C101">
-        <v>-0.02940942564231339</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02172297974342156</v>
+      </c>
+      <c r="D101">
+        <v>-0.0140128906120926</v>
+      </c>
+      <c r="E101">
+        <v>-0.03831537981542182</v>
+      </c>
+      <c r="F101">
+        <v>0.01595158427102747</v>
+      </c>
+      <c r="G101">
+        <v>0.01487510116920601</v>
+      </c>
+      <c r="H101">
+        <v>-0.08876150411943275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
